--- a/第10组项目工作计划表.xlsx
+++ b/第10组项目工作计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="17085" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="第十组" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>第10组项目工作计划表</t>
   </si>
@@ -261,7 +261,7 @@
     <t>绩效</t>
   </si>
   <si>
-    <t>绩效管理</t>
+    <t>绩效标准</t>
   </si>
   <si>
     <t>绩效考核</t>
@@ -270,13 +270,40 @@
     <t>薪资管理模块</t>
   </si>
   <si>
+    <t>薪资标准</t>
+  </si>
+  <si>
     <t>薪资管理</t>
   </si>
   <si>
-    <t>员工奖惩记录</t>
+    <t>薪资计算</t>
   </si>
   <si>
-    <t>薪资计算和发放</t>
+    <t>报销</t>
+  </si>
+  <si>
+    <t>报销管理</t>
+  </si>
+  <si>
+    <t>工作汇报</t>
+  </si>
+  <si>
+    <t>编写汇报</t>
+  </si>
+  <si>
+    <t>查询汇报</t>
+  </si>
+  <si>
+    <t>天气预报</t>
+  </si>
+  <si>
+    <t>前端换肤</t>
+  </si>
+  <si>
+    <t>导航树分权</t>
+  </si>
+  <si>
+    <t>分权显示</t>
   </si>
 </sst>
 </file>
@@ -284,10 +311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="24">
@@ -450,9 +477,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,14 +491,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,7 +538,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,25 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,13 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,13 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,13 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,13 +718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,10 +888,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,16 +900,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,10 +921,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -912,28 +945,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -942,62 +975,62 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,7 +1126,21 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1104,11 +1151,27 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2082,10 +2145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG99"/>
+  <dimension ref="A1:AG109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96:M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2821,11 +2884,6 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -2937,10 +2995,6 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
       <c r="AG22" s="6"/>
     </row>
     <row r="23" spans="2:33">
@@ -4224,8 +4278,8 @@
       <c r="Z73" s="6"/>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
+      <c r="AC73" s="35"/>
+      <c r="AD73" s="35"/>
       <c r="AE73" s="6"/>
       <c r="AF73" s="6"/>
       <c r="AG73" s="6"/>
@@ -4296,7 +4350,7 @@
       <c r="AB75" s="6"/>
       <c r="AC75" s="6"/>
       <c r="AD75" s="6"/>
-      <c r="AE75" s="28"/>
+      <c r="AE75" s="35"/>
       <c r="AF75" s="6"/>
       <c r="AG75" s="6"/>
     </row>
@@ -4367,7 +4421,7 @@
       <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
       <c r="AE77" s="6"/>
-      <c r="AF77" s="28"/>
+      <c r="AF77" s="35"/>
       <c r="AG77" s="6"/>
     </row>
     <row r="78" spans="2:33">
@@ -4517,8 +4571,8 @@
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -4546,12 +4600,12 @@
       <c r="AF82" s="17"/>
       <c r="AG82" s="17"/>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" ht="14.25" spans="1:33">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="20"/>
-      <c r="E83" s="8"/>
+      <c r="E83" s="20"/>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
@@ -4591,13 +4645,13 @@
       <c r="C84" s="23"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
       <c r="M84" s="24"/>
       <c r="N84" s="24"/>
       <c r="O84" s="24"/>
@@ -4620,13 +4674,13 @@
       <c r="AF84" s="24"/>
       <c r="AG84" s="24"/>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" ht="14.25" spans="1:33">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
+      <c r="F85" s="20"/>
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
@@ -4665,15 +4719,15 @@
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
       <c r="L86" s="22"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
       <c r="S86" s="22"/>
@@ -4692,15 +4746,15 @@
       <c r="AF86" s="22"/>
       <c r="AG86" s="22"/>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" ht="14.25" spans="1:33">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
       <c r="I87" s="18"/>
       <c r="J87" s="18"/>
       <c r="K87" s="18"/>
@@ -4741,17 +4795,17 @@
       <c r="G88" s="24"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
       <c r="N88" s="22"/>
       <c r="O88" s="22"/>
       <c r="P88" s="22"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="25"/>
-      <c r="S88" s="25"/>
-      <c r="T88" s="25"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="24"/>
       <c r="U88" s="24"/>
       <c r="V88" s="24"/>
       <c r="W88" s="24"/>
@@ -4766,7 +4820,7 @@
       <c r="AF88" s="24"/>
       <c r="AG88" s="24"/>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" ht="14.25" spans="1:33">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -4775,8 +4829,8 @@
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
       <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
       <c r="K89" s="21"/>
       <c r="L89" s="21"/>
       <c r="M89" s="21"/>
@@ -4815,8 +4869,8 @@
       <c r="I90" s="24"/>
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="22"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
@@ -4824,10 +4878,10 @@
       <c r="R90" s="22"/>
       <c r="S90" s="22"/>
       <c r="T90" s="22"/>
-      <c r="U90" s="28"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28"/>
+      <c r="U90" s="24"/>
+      <c r="V90" s="24"/>
+      <c r="W90" s="24"/>
+      <c r="X90" s="24"/>
       <c r="Y90" s="24"/>
       <c r="Z90" s="24"/>
       <c r="AA90" s="24"/>
@@ -4838,7 +4892,7 @@
       <c r="AF90" s="24"/>
       <c r="AG90" s="24"/>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" ht="14.25" spans="1:33">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -4849,7 +4903,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
+      <c r="K91" s="20"/>
       <c r="L91" s="21"/>
       <c r="M91" s="21"/>
       <c r="N91" s="21"/>
@@ -4889,8 +4943,8 @@
       <c r="K92" s="24"/>
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="24"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
       <c r="P92" s="24"/>
       <c r="Q92" s="24"/>
       <c r="R92" s="24"/>
@@ -4900,17 +4954,17 @@
       <c r="V92" s="22"/>
       <c r="W92" s="22"/>
       <c r="X92" s="22"/>
-      <c r="Y92" s="25"/>
-      <c r="Z92" s="25"/>
-      <c r="AA92" s="25"/>
-      <c r="AB92" s="25"/>
+      <c r="Y92" s="24"/>
+      <c r="Z92" s="24"/>
+      <c r="AA92" s="24"/>
+      <c r="AB92" s="24"/>
       <c r="AC92" s="24"/>
       <c r="AD92" s="22"/>
       <c r="AE92" s="24"/>
       <c r="AF92" s="24"/>
       <c r="AG92" s="24"/>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" ht="14.25" spans="1:33">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -4922,8 +4976,8 @@
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
       <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
       <c r="N93" s="21"/>
       <c r="O93" s="21"/>
       <c r="P93" s="21"/>
@@ -4946,9 +5000,11 @@
       <c r="AG93" s="21"/>
     </row>
     <row r="94" spans="1:33">
-      <c r="A94" s="22"/>
+      <c r="A94" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="B94" s="23" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="24"/>
@@ -4963,8 +5019,8 @@
       <c r="M94" s="24"/>
       <c r="N94" s="24"/>
       <c r="O94" s="24"/>
-      <c r="P94" s="24"/>
-      <c r="Q94" s="24"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
       <c r="R94" s="24"/>
       <c r="S94" s="24"/>
       <c r="T94" s="24"/>
@@ -4976,13 +5032,13 @@
       <c r="Z94" s="24"/>
       <c r="AA94" s="24"/>
       <c r="AB94" s="24"/>
-      <c r="AC94" s="28"/>
-      <c r="AD94" s="28"/>
+      <c r="AC94" s="24"/>
+      <c r="AD94" s="24"/>
       <c r="AE94" s="22"/>
       <c r="AF94" s="24"/>
       <c r="AG94" s="24"/>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" ht="14.25" spans="1:33">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -4996,8 +5052,8 @@
       <c r="K95" s="21"/>
       <c r="L95" s="21"/>
       <c r="M95" s="21"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="21"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
       <c r="P95" s="21"/>
       <c r="Q95" s="21"/>
       <c r="R95" s="21"/>
@@ -5010,7 +5066,7 @@
       <c r="Y95" s="21"/>
       <c r="Z95" s="21"/>
       <c r="AA95" s="21"/>
-      <c r="AB95" s="29"/>
+      <c r="AB95" s="36"/>
       <c r="AC95" s="21"/>
       <c r="AD95" s="21"/>
       <c r="AE95" s="21"/>
@@ -5018,9 +5074,11 @@
       <c r="AG95" s="21"/>
     </row>
     <row r="96" spans="1:33">
-      <c r="A96" s="22"/>
+      <c r="A96" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="B96" s="23" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="24"/>
@@ -5037,8 +5095,8 @@
       <c r="O96" s="24"/>
       <c r="P96" s="24"/>
       <c r="Q96" s="24"/>
-      <c r="R96" s="24"/>
-      <c r="S96" s="24"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
       <c r="T96" s="24"/>
       <c r="U96" s="24"/>
       <c r="V96" s="24"/>
@@ -5050,14 +5108,14 @@
       <c r="AB96" s="24"/>
       <c r="AC96" s="24"/>
       <c r="AD96" s="24"/>
-      <c r="AE96" s="25"/>
+      <c r="AE96" s="24"/>
       <c r="AF96" s="22"/>
       <c r="AG96" s="24"/>
     </row>
-    <row r="97" spans="1:33">
-      <c r="A97" s="26"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
+    <row r="97" ht="14.25" spans="1:33">
+      <c r="A97" s="25"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
@@ -5070,7 +5128,7 @@
       <c r="M97" s="21"/>
       <c r="N97" s="21"/>
       <c r="O97" s="21"/>
-      <c r="P97" s="21"/>
+      <c r="P97" s="20"/>
       <c r="Q97" s="21"/>
       <c r="R97" s="21"/>
       <c r="S97" s="21"/>
@@ -5092,7 +5150,7 @@
     <row r="98" spans="1:33">
       <c r="A98" s="22"/>
       <c r="B98" s="23" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="24"/>
@@ -5111,8 +5169,8 @@
       <c r="Q98" s="24"/>
       <c r="R98" s="24"/>
       <c r="S98" s="24"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="24"/>
+      <c r="T98" s="33"/>
+      <c r="U98" s="33"/>
       <c r="V98" s="24"/>
       <c r="W98" s="24"/>
       <c r="X98" s="24"/>
@@ -5123,13 +5181,13 @@
       <c r="AC98" s="24"/>
       <c r="AD98" s="24"/>
       <c r="AE98" s="24"/>
-      <c r="AF98" s="25"/>
+      <c r="AF98" s="24"/>
       <c r="AG98" s="24"/>
     </row>
-    <row r="99" spans="1:33">
-      <c r="A99" s="26"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
+    <row r="99" ht="14.25" spans="1:33">
+      <c r="A99" s="25"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
@@ -5143,7 +5201,7 @@
       <c r="N99" s="21"/>
       <c r="O99" s="21"/>
       <c r="P99" s="21"/>
-      <c r="Q99" s="21"/>
+      <c r="Q99" s="34"/>
       <c r="R99" s="21"/>
       <c r="S99" s="21"/>
       <c r="T99" s="21"/>
@@ -5161,12 +5219,1475 @@
       <c r="AF99" s="21"/>
       <c r="AG99" s="21"/>
     </row>
+    <row r="100" spans="1:33">
+      <c r="A100" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="24"/>
+      <c r="U100" s="24"/>
+      <c r="V100" s="33"/>
+      <c r="W100" s="33"/>
+      <c r="X100" s="24"/>
+      <c r="Y100" s="24"/>
+      <c r="Z100" s="24"/>
+      <c r="AA100" s="24"/>
+      <c r="AB100" s="24"/>
+      <c r="AC100" s="24"/>
+      <c r="AD100" s="24"/>
+      <c r="AE100" s="24"/>
+      <c r="AF100" s="24"/>
+      <c r="AG100" s="24"/>
+    </row>
+    <row r="101" ht="14.25" spans="1:33">
+      <c r="A101" s="25"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="34"/>
+      <c r="S101" s="34"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="21"/>
+      <c r="Z101" s="21"/>
+      <c r="AA101" s="21"/>
+      <c r="AB101" s="21"/>
+      <c r="AC101" s="21"/>
+      <c r="AD101" s="21"/>
+      <c r="AE101" s="21"/>
+      <c r="AF101" s="21"/>
+      <c r="AG101" s="21"/>
+    </row>
+    <row r="102" spans="1:33">
+      <c r="A102" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
+      <c r="T102" s="24"/>
+      <c r="U102" s="24"/>
+      <c r="V102" s="24"/>
+      <c r="W102" s="24"/>
+      <c r="X102" s="33"/>
+      <c r="Y102" s="33"/>
+      <c r="Z102" s="24"/>
+      <c r="AA102" s="24"/>
+      <c r="AB102" s="24"/>
+      <c r="AC102" s="24"/>
+      <c r="AD102" s="24"/>
+      <c r="AE102" s="24"/>
+      <c r="AF102" s="24"/>
+      <c r="AG102" s="24"/>
+    </row>
+    <row r="103" ht="14.25" spans="1:33">
+      <c r="A103" s="25"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="34"/>
+      <c r="U103" s="34"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="21"/>
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="21"/>
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+    </row>
+    <row r="104" spans="1:33">
+      <c r="A104" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" s="23"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="24"/>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
+      <c r="S104" s="24"/>
+      <c r="T104" s="24"/>
+      <c r="U104" s="24"/>
+      <c r="V104" s="24"/>
+      <c r="W104" s="24"/>
+      <c r="X104" s="24"/>
+      <c r="Y104" s="24"/>
+      <c r="Z104" s="33"/>
+      <c r="AA104" s="33"/>
+      <c r="AB104" s="24"/>
+      <c r="AC104" s="24"/>
+      <c r="AD104" s="24"/>
+      <c r="AE104" s="24"/>
+      <c r="AF104" s="24"/>
+      <c r="AG104" s="24"/>
+    </row>
+    <row r="105" ht="14.25" spans="1:33">
+      <c r="A105" s="25"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="21"/>
+      <c r="S105" s="21"/>
+      <c r="T105" s="21"/>
+      <c r="U105" s="21"/>
+      <c r="V105" s="34"/>
+      <c r="W105" s="34"/>
+      <c r="X105" s="34"/>
+      <c r="Y105" s="34"/>
+      <c r="Z105" s="34"/>
+      <c r="AA105" s="21"/>
+      <c r="AB105" s="21"/>
+      <c r="AC105" s="21"/>
+      <c r="AD105" s="21"/>
+      <c r="AE105" s="21"/>
+      <c r="AF105" s="21"/>
+      <c r="AG105" s="21"/>
+    </row>
+    <row r="106" spans="1:33">
+      <c r="A106" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106" s="28"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="29"/>
+      <c r="AA106" s="29"/>
+      <c r="AB106" s="33"/>
+      <c r="AC106" s="33"/>
+      <c r="AD106" s="37"/>
+      <c r="AE106" s="37"/>
+      <c r="AF106" s="29"/>
+      <c r="AG106" s="29"/>
+    </row>
+    <row r="107" spans="1:33">
+      <c r="A107" s="30"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="32"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="32"/>
+      <c r="S107" s="32"/>
+      <c r="T107" s="32"/>
+      <c r="U107" s="32"/>
+      <c r="V107" s="32"/>
+      <c r="X107" s="32"/>
+      <c r="Y107" s="32"/>
+      <c r="Z107" s="32"/>
+      <c r="AA107" s="34"/>
+      <c r="AB107" s="34"/>
+      <c r="AC107" s="32"/>
+      <c r="AD107" s="32"/>
+      <c r="AE107" s="32"/>
+      <c r="AF107" s="32"/>
+      <c r="AG107" s="32"/>
+    </row>
+    <row r="108" spans="1:33">
+      <c r="A108" s="27"/>
+      <c r="B108" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="28"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="29"/>
+      <c r="R108" s="29"/>
+      <c r="S108" s="29"/>
+      <c r="T108" s="29"/>
+      <c r="U108" s="29"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="29"/>
+      <c r="X108" s="29"/>
+      <c r="Y108" s="29"/>
+      <c r="Z108" s="29"/>
+      <c r="AA108" s="29"/>
+      <c r="AB108" s="29"/>
+      <c r="AC108" s="29"/>
+      <c r="AD108" s="29"/>
+      <c r="AE108" s="29"/>
+      <c r="AF108" s="37"/>
+      <c r="AG108" s="37"/>
+    </row>
+    <row r="109" spans="29:33">
+      <c r="AC109" s="34"/>
+      <c r="AD109" s="34"/>
+      <c r="AE109" s="34"/>
+      <c r="AF109" s="34"/>
+      <c r="AG109" s="34"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:AG1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:E3">
+    <cfRule type="dataBar" priority="179">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3f0fd12a-f33b-4c88-9073-da4dc9298c5b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="159">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{dcf5f7b9-3dfe-4326-8e81-dbd3f79a094a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="157">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6ceb3c9d-e111-4954-ba34-d2e629590368}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:U12">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="174">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{16ed8343-afb0-43f7-b6b9-8811ff743a5f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12:Y12">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="173">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4e32cbbd-1a6a-4e3b-8eab-599c90300570}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="171">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5f6314fc-1da4-4ae3-949a-6637e7010cf5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14:Y14">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="169">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{082cc783-392a-4f6d-b932-a4fb9a548f67}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16:V16">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="167">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8b7291f5-4363-4ddd-a0fb-77a278019f40}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16:Z16">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="165">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8397071d-9be8-45e5-94ba-df36ca5363c3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17:V17">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="163">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d4cf6c4f-8e55-4973-8105-7230ea4fa475}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:Z17">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="161">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{13b3e0c8-e617-47a3-a19d-fa9c47296b4d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22:AB22">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="177">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4c9ea3ef-7717-4450-bd90-05a840d9a342}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:G28">
+    <cfRule type="dataBar" priority="208">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c3117770-16d9-4b77-9137-143c7b73e7c6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="dataBar" priority="184">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bb23d171-3a19-4bea-bcc6-5e64b995736b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="dataBar" priority="182">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e684b812-1e88-4b11-a9c1-67f69d7e205b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:I30">
+    <cfRule type="dataBar" priority="206">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2acbfda9-1171-496e-9c74-6a6b2469a69e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="dataBar" priority="204">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4a799cfa-00d8-4cf2-8a51-ce0d1d281a8d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:L32">
+    <cfRule type="dataBar" priority="202">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34569713-909f-4b9c-aaeb-4267f350ee17}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34">
+    <cfRule type="dataBar" priority="200">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{635948c6-3018-4e4b-9522-f4bba84c11cb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34:O34">
+    <cfRule type="dataBar" priority="198">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{dd00e580-d61a-4792-9a39-8171531ce34e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:Q36">
+    <cfRule type="dataBar" priority="196">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ec749d97-9a91-4d18-a81a-59895013c343}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R38:T38">
+    <cfRule type="dataBar" priority="194">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{64baba4a-da77-46b8-81e1-cad1f796f3f1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U40:W40">
+    <cfRule type="dataBar" priority="192">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8b7cbbe0-c4ed-40f6-b108-af008b12be46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X42:Y42">
+    <cfRule type="dataBar" priority="190">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9a0c171b-3e8d-48c0-8c18-cdbb295c4a70}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z44:AA44">
+    <cfRule type="dataBar" priority="188">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{467d3cba-9b42-4b3b-82ed-715880ac21e7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB46:AD46">
+    <cfRule type="dataBar" priority="186">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{869d059f-53e3-4393-847e-fbe4f7249f32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE48">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="153">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{dfbba8f3-e50b-4447-955a-6680432ecfd0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF50">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="151">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5801e053-6e5a-45a9-bc24-2fb0a92886d6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:E55">
+    <cfRule type="dataBar" priority="284">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c78a88a7-7009-4757-a4b3-f72495d0116f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="dataBar" priority="217">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{74094e15-2f9d-4fd0-8fa1-30b8d7350413}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB73">
+    <cfRule type="dataBar" priority="215">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3e5abd52-28fa-437d-aa79-531f4857a6ab}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC73">
+    <cfRule type="dataBar" priority="227">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6ae8c349-168a-4e8c-b816-4e125e04f830}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD73">
+    <cfRule type="dataBar" priority="225">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2e9f4b83-ddd6-44d8-84cf-a2fe5a8c7d7b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE75">
+    <cfRule type="dataBar" priority="221">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f9db37ec-af5b-4155-81b2-9fa72fe51094}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF77">
+    <cfRule type="dataBar" priority="219">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0b96745a-0272-4ed1-bae0-22b49128d0e2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:E82">
+    <cfRule type="dataBar" priority="263">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a293a912-1814-4b07-9d6d-721d6fd3e1c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="dataBar" priority="126">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b70ce37f-f729-4a65-a827-9eafe2eb6b58}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="46">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7b562bf5-04a3-488a-b8e2-48624686b294}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bdb3b40f-8d73-4351-85cb-00af05929202}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d2d0e441-5178-412f-b560-0e6932db262e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="52">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1228431b-f22b-4459-aa74-4cfb3310557f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L84">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="54">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{85ee9e17-5435-4be2-a555-c6f9071fb872}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86:I86">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="124">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{80380fd4-0e15-4a09-a103-b3e133e0c3d8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="123">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0a840dee-f29f-46b8-94a7-106a83905a87}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M86">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="56">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ef071e6f-b561-41f5-80f0-60769dc3876d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N86">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="58">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8f2b2177-4588-4d08-a212-d4778eca033a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O86">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="60">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bb0638fd-0d49-41fa-84e0-11d711f6482a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P86">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="62">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d2f7c40f-3cca-44c0-b415-713b20a9d717}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{004fa318-22df-4404-9fb2-77bed72ed31b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
@@ -5175,12 +6696,1446 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9a93c571-50a4-4cac-806f-781cd72d2405}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+          <x14:id>{236a6b8f-2d13-4cbf-b462-314c169dc788}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88:K88">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="121">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e61da8db-9f34-4d2c-93ac-44b9ffb3b7a6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="120">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{87d11c98-ad12-4b3f-ba6e-4ea89d5cdff0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q88">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4f2c8c0b-6a3e-4e09-b190-9fcd3d3685c9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R88">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="68">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{52e9d4cc-99bc-4a70-9add-57807d2dfe1b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S88">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="66">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fca0c3d1-77c3-4c4a-a924-a043c931f661}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T88">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="70">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{012c057f-3cca-4add-858f-284427af7bc5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89:H89">
+    <cfRule type="dataBar" priority="255">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e9383a26-c730-449b-89e4-2a38b75b4369}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{854e1636-7f95-49b6-952e-c0cc6d8e54fe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{125146b5-881c-423f-a373-8f9c5f225015}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K89:L89">
+    <cfRule type="dataBar" priority="253">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c4609177-b22c-487e-a5ae-1b7281706578}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="256">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M89">
+    <cfRule type="dataBar" priority="251">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ae2f3922-1d24-4a1c-95ec-8b465d660240}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P89">
+    <cfRule type="dataBar" priority="243">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0df9b762-db24-4678-aa53-e650fdec33eb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L90:M90">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="118">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0d643ef6-d974-4be0-9fe8-0fbcdb2e55f8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="117">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b3f6fd78-ea16-4db9-a4b2-1fd13ef8cb7c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U90">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="72">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f270aaf5-ab86-4875-a1d7-cbada1a1012f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V90">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="74">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0466fbc7-322d-424a-84da-65ceda87245b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W90">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="76">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d89d066b-9c97-44b4-b7cd-6abc340b48f4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X90">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="78">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{edda828b-cc81-41c1-bc6e-697aa6d12fd6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N91:O91">
+    <cfRule type="dataBar" priority="259">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5df024d7-33a2-440a-a2e5-2b5872359dfd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q91:W91">
+    <cfRule type="dataBar" priority="245">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{98219c04-b0f0-441a-8887-c8703f8a312f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92:O92">
+    <cfRule type="dataBar" priority="116">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{65f90313-04f8-4396-add3-e517462bb3ae}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y92">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="80">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{19604de8-51d6-4a9d-b10d-3ed74e498dce}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z92">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="82">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f4681448-a730-4d89-b43c-ad51b1191b2b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA92">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="84">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f2162d6e-f3b8-435d-b174-1a923b0c59fe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB92">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="88">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8fa963b7-a46d-4017-a806-9ce235479237}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z93:AB93">
+    <cfRule type="dataBar" priority="261">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{194504ef-24f0-4e2b-b592-64fb3c398a9c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="262">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P94:Q94">
+    <cfRule type="dataBar" priority="115">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{395ec29f-25e1-4582-82ac-9ae766ba7329}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC94">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="90">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{96dc5127-1edc-43c6-942f-0b289515a8a4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD94">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="92">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68c2ee81-b720-4118-94ad-0a2936115abe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC95:AE95">
+    <cfRule type="dataBar" priority="249">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cd8cd97e-5003-4c2a-a4ad-d17d5ba1bb97}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="250">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R96:S96">
+    <cfRule type="dataBar" priority="114">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5fd18a7e-db89-4175-bf16-e9796cd8d668}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE96">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="94">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c784139d-a0a3-4e61-93fe-0c33e7cad2fe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P97">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cd28f930-2dfd-4e55-bcec-ca034ac71516}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF97">
+    <cfRule type="dataBar" priority="211">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{983a34cd-2765-40f4-8398-0355b3999359}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T98:U98">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="112">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c13f4dbb-3a5f-411f-8d33-5ec64f9cfa34}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="111">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ed565a94-41bd-4ba3-af73-d68ef329b365}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE98">
+    <cfRule type="dataBar" priority="237">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{572cd760-b3c1-472c-8320-3c8bf175c5c4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF98">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="96">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6534dfab-c9fe-469a-aa9b-f7b2168eb2af}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q99">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{00a96c63-d125-43f3-b5dc-c258c756acff}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF99">
+    <cfRule type="dataBar" priority="231">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8c85d32e-5110-4ee5-bf45-124ff354d824}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V100:W100">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="109">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cc162f24-0d5d-4400-b479-26a73704a97a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="108">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0490e719-7713-4cc7-b704-868bf172b609}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE100">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="147">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1b81b7af-c17a-4cb4-8543-139a1857a05c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF100">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="98">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{43ae6685-705a-4d4c-8ff6-d309c554c167}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R101">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0cb59e75-a15a-46c0-962b-018512a08cdd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S101">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b9289dbb-9947-431a-8b46-e3f03a6789e5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF101">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="143">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9d9e43e8-c1aa-4cdd-a56c-4471689d03fc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X102:Y102">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="106">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2eafa208-bfff-4e61-b26f-791405cbc347}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="105">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{491b1274-ab5c-470d-b84f-379272fd91d0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE102">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="139">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{45b4651e-86b0-428b-8038-072431ddfdb2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF102">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="100">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7030ab73-11ee-448c-ac76-d2c5991d445b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T103">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e5fcbb96-52bd-4cd4-9489-ade966bcbe2a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U103">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ef5d26ac-9c4d-40bc-af73-6bef52658191}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF103">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="135">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a2ceaa81-fb66-48f4-9285-1aa42f66bef4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z104:AA104">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="103">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{dc3cd7cc-a363-4b7b-ac1e-37d377568d73}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="102">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49746eed-b27a-412a-b207-62ee6d8a44ca}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE104">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="131">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3a32d774-1acf-4c96-ab59-48421343f624}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V105:Y105">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f66bae4a-5fb6-41ff-a13f-7a2ccc7bcda0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z105">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e2c098ad-f595-42f4-accf-cc1cd8afae26}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF105">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="127">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58301392-bd20-4638-a44f-41a9de3c477b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB106:AC106">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9cc46159-098f-4d49-9634-e95b4842effe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{063e77b4-7d91-4f04-bb65-dfc0084068d7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD106">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3fcfb27f-46f3-41da-9114-de17a7d56515}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE106">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{415f8a7a-b86d-46cb-9fbc-0098d43d9cc8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA107">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a24d37b1-2185-438c-b4ab-fe9d1e8fe8f6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5191,20 +8146,80 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01416599-9317-4ea5-8ffe-6c0d037f3a60}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB107">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{62927ca4-e233-4283-81a5-a045db8a3e4e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF108">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{07715b40-c88c-4182-b171-7095fb039dc4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG108">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8b08b456-2970-43cd-a181-b409bdea18b2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC109:AG109">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5223,434 +8238,372 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a3a00ef7-8779-4b07-94d9-645d08c10a59}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T12:U12">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9b57c665-6496-4a39-8b84-fd7fd48370c6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X12:Y12">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="23">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b42f0ef0-2467-4f61-be71-360c04f2ea1d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U14">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{423d49eb-f3d8-4b29-9e60-5aa424d8d165}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7172938e-368f-4709-bc90-dd7aeb2f97a4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16:V16">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4e00e96e-2572-4733-b9b6-fe068c7d5c00}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:Z16">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b5a3369-3fb7-4dc5-9a78-189cf70efeaa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:V17">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ef6c4dcb-b55b-426c-b0d3-80ea9a94bd8b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X17:Z17">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13a90b5e-24a7-45a2-bd6c-f7972dc8b705}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y22:AB22">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{38e78af4-1e1f-4801-b1a4-47ba6df936cf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:G28">
-    <cfRule type="dataBar" priority="58">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{426cf4c2-ccae-43e7-8431-92b237d4bcdd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1cece7dd-c165-4385-bde1-5e05610a49b8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c8754ef1-2785-4868-86bf-7f14c0a2cd56}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:I30">
-    <cfRule type="dataBar" priority="56">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{91d1e75e-22cf-465c-9e2b-bd746d4c04c2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="dataBar" priority="54">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{595c78c4-184d-49d1-a759-e48ab92e79ac}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:L32">
-    <cfRule type="dataBar" priority="52">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f6e01bbd-ce5a-4ee0-9285-5d12e6691210}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34">
-    <cfRule type="dataBar" priority="50">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8f1e9c0b-ac5d-47c4-b1df-e94c43c5dd0e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34:O34">
-    <cfRule type="dataBar" priority="48">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{461c2199-f257-4ade-858f-f95f78f974c1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36:Q36">
-    <cfRule type="dataBar" priority="46">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20064f56-108b-4fd7-9acc-043273ac18c0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R38:T38">
+          <x14:id>{de74260c-99df-43e4-8a51-134c85b085c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:AG3 F4:AG4 D5:AG11 D12:Q12 Z12:AG12 X22 D13:AG13 D14:Q14 D15:AG15 D16:R17 Q18:AA18 Q20:W24 AB23:AG23 D18:P24 AG22 Z14:AG14 AA16:AG17 AB18:AG21 X20:AA21 X23:AA24 V19:AA19">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="180">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7a6093e7-7241-4245-953a-1c1ba12b565e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC28:AG31 J30:AB31 H31:I31 D30:D31 F29:AB29 D28:AB28">
+    <cfRule type="dataBar" priority="209">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5b0b85b7-3229-4fb0-b18f-136ae1fc2e23}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:AG51 AG50 D50:AE50 D49:AG49 AF48:AG48 D48:AD48">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="155">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e2771d34-c5db-414f-bd63-d65bfd17e933}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:AG55 D56 F56:AG56 D57:AG72 D73:AA73 D78:AG78 AG77 D77:AE77 D76:AG76 AF75:AG75 D75:AD75 D74:AG74 AE73:AG73">
+    <cfRule type="dataBar" priority="285">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6ada7f9f-d748-44a0-9447-7396ab49fa20}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="286">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC92 M92:X92 AD88:AD91 AE88:AG92 M91 U88:AC88 N89:O89 E88:G88 E89:F89 E90:K90 E91:L92 D82:AG83 D84:G84 M84:AG84 D85:AG85 AC93:AE93 E93:Y96 AG93:AG96 D88:D96 AF93:AF95 AB94:AB95 AB96:AD96 Z94:AA96">
+    <cfRule type="dataBar" priority="264">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{29d00abe-e5c9-4967-9e75-d360fa9a56e6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X91:Z91 P91 Q89:Z89 Y90:Z90 AA88:AC91">
+    <cfRule type="dataBar" priority="247">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f244b1a2-3daf-46c3-89ce-6341dd21f1f9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97:O97 Q97:AE97 AG97">
+    <cfRule type="dataBar" priority="213">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b731dd78-3655-4be9-96be-681250d72517}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98:S98 V98:AD98 AG98">
+    <cfRule type="dataBar" priority="239">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4c527311-944f-4f68-adc2-023cefacc49e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:P99 R99:AE99 AG99">
+    <cfRule type="dataBar" priority="233">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a6618bfb-f8d4-469c-94d3-25af4b476158}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:U100 X100:AD100 AG100">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="149">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{38a5f4c0-2fd5-4710-8c72-0316bf951d3c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101:Q101 T101:AE101 AG101">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="145">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fe6264c5-8eb5-4468-a759-96be471990a5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102:W102 Z102:AD102 AG102">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="141">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1b25c5c6-983d-4c6c-8b7e-9a35bd365b2a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103:S103 V103:AE103 AG103">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="137">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c51ea956-0829-45ad-ad51-02cd5c32724b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104:Y104 AB104:AD104 AF104:AG104">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="133">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{89080f48-a1b5-4684-90e4-f89a7571096f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105:U105 AA105:AE105 AG105">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="129">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{abdef303-45a0-4bd6-89e2-509b66c52488}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108:AE108 D107:V107 AC107:AG107 X107:Z107 D106:AA106 AF106:AG106">
     <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
@@ -5659,879 +8612,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e9fdcd15-ddf1-47e7-8e4a-c04f44835ac4}</x14:id>
+          <x14:id>{f1b79903-06b5-41f2-8f2b-bfd4e698c66d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
     <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U40:W40">
-    <cfRule type="dataBar" priority="42">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fc70b96c-49bd-4ccd-b995-f83a1133c96e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X42:Y42">
-    <cfRule type="dataBar" priority="40">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{da649726-cfff-4d2b-a3f5-d6d540c091ae}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z44:AA44">
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1fe03cdd-8e0f-4199-bfaf-96c67e0600b2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB46:AD46">
-    <cfRule type="dataBar" priority="36">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c4e198bf-9fcc-4c6c-997d-633f0b33b59e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE48">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a7b979eb-17cc-4684-92aa-c85d45e1ec21}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF50">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7177415-72e9-49d6-baea-29bb36e7b8a5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:E55">
-    <cfRule type="dataBar" priority="134">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f1b653a9-99cd-4c5a-93ed-12cf95a30ec7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="dataBar" priority="67">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5564879a-442b-4aee-a035-ca0d2b97b64f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB73">
-    <cfRule type="dataBar" priority="65">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3ef7d387-7822-4116-bed5-84139d12c739}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC73">
-    <cfRule type="dataBar" priority="77">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cf568d2b-87fb-44f7-9ad1-4270c0af682d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD73">
-    <cfRule type="dataBar" priority="75">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5e3ffaf3-7b59-4213-bf3e-c415c256d12a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE75">
-    <cfRule type="dataBar" priority="71">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dd71416e-8896-4aab-939d-39716ea66b21}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF77">
-    <cfRule type="dataBar" priority="69">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86b4af35-c9d4-4d65-8ed9-67e2000b18a1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82:G82">
-    <cfRule type="dataBar" priority="113">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{821ce777-16ca-4ea2-919e-dd97dea6e1f4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M86:O86">
-    <cfRule type="dataBar" priority="91">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{073602eb-6f37-4023-b6f9-8a652d306fb1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P86">
-    <cfRule type="dataBar" priority="85">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4f99d4c9-2a0e-4f91-98e8-2b1badfed793}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89:H89">
-    <cfRule type="dataBar" priority="105">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c662dad0-4c3d-47da-8c38-f1b63830db48}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89:J89">
-    <cfRule type="dataBar" priority="104">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{048c38ac-c8d9-413d-b46d-ce53089d1536}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K89:L89">
-    <cfRule type="dataBar" priority="103">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1af3ab62-2cd7-46b2-81c3-ce208cd9d598}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M89">
-    <cfRule type="dataBar" priority="101">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8d53aeea-fc18-4aac-9a03-038418d1b521}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P89">
-    <cfRule type="dataBar" priority="93">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e0463305-492a-45ad-a032-4cb31aea1384}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N91:O91">
-    <cfRule type="dataBar" priority="109">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5295d4d9-4739-49d4-a580-e5ef19bf1818}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q91:W91">
-    <cfRule type="dataBar" priority="95">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20567ec5-8bbe-4f43-bbad-2e48fe28191a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z93:AB93">
-    <cfRule type="dataBar" priority="111">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ed129035-477a-471d-83a7-18b6d6b13c0d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC95:AE95">
-    <cfRule type="dataBar" priority="99">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84ef1fbe-c4d2-484a-9721-a86a9993fe44}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF97">
-    <cfRule type="dataBar" priority="61">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{875273d9-48f4-4974-a45e-3f2859739289}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE98">
-    <cfRule type="dataBar" priority="87">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{610100a1-b6fa-49c5-b5d5-a381d7c17da4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF99">
-    <cfRule type="dataBar" priority="81">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{27204fdc-a599-4304-8ffd-bd665a458e86}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:AG3 F4:AG4 D5:AG11 D12:Q12 Z12:AG12 X22 D13:AG13 D14:Q14 D15:AG15 D16:R17 Q18:AA18 Q20:W24 AB23:AG23 D18:P24 AG22 Z14:AG14 AA16:AG17 AB18:AG21 X20:AA21 X23:AA24 V19:AA19">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{36406ac6-5922-45c2-9e02-fc228e045ece}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC28:AG31 J30:AB31 H31:I31 D30:D31 F29:AB29 D28:AB28">
-    <cfRule type="dataBar" priority="59">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6cb57169-09ca-4cd3-9ffd-7f70fe5ce245}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:AG51 AG50 D50:AE50 D49:AG49 AF48:AG48 D48:AD48">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de42204c-a972-480e-97cc-a24afeb60da7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:AG55 D56 F56:AG56 D57:AG72 D73:AA73 D78:AG78 AG77 D77:AE77 D76:AG76 AF75:AG75 D75:AD75 D74:AG74 AE73:AG73">
-    <cfRule type="dataBar" priority="135">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86c05140-d3e0-41e5-b842-f5ebd2611264}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC92 M92:Z92 AD88:AD91 AE88:AG92 M91 Q88:AC88 N89:O89 E88:G88 E89:F89 E90:L92 D82:AG85 AC93:AE93 E93:Y96 AG93:AG96 D88:D96 AF93:AF95 AB94:AD94 AB95 AB96:AE96 Z94:AA96">
-    <cfRule type="dataBar" priority="114">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f49800cf-dac1-47a4-a954-435f777359cc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X91:Z91 P91 Y92:AB92 Q89:Z89 U90:Z90 AA88:AC91">
-    <cfRule type="dataBar" priority="97">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c6aa7a30-04bd-4840-a55d-bf9f3cbc4ba9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97:AE97 AG97">
-    <cfRule type="dataBar" priority="63">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6853c7bc-8132-4a86-a924-1a1ca4cc3032}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98:AD98 AF98:AG98">
-    <cfRule type="dataBar" priority="89">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc06ba88-c3b8-4a47-a603-693afb3aba80}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:AE99 AG99">
-    <cfRule type="dataBar" priority="83">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f288c6c0-0d23-4a57-8182-6f8dbbe4e3c3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6555,7 +8640,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9a93c571-50a4-4cac-806f-781cd72d2405}">
+          <x14:cfRule type="dataBar" id="{3f0fd12a-f33b-4c88-9073-da4dc9298c5b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6566,7 +8651,7 @@
           <xm:sqref>D3:E3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01416599-9317-4ea5-8ffe-6c0d037f3a60}">
+          <x14:cfRule type="dataBar" id="{dcf5f7b9-3dfe-4326-8e81-dbd3f79a094a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6579,7 +8664,7 @@
           <xm:sqref>D4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a3a00ef7-8779-4b07-94d9-645d08c10a59}">
+          <x14:cfRule type="dataBar" id="{6ceb3c9d-e111-4954-ba34-d2e629590368}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6592,7 +8677,7 @@
           <xm:sqref>E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9b57c665-6496-4a39-8b84-fd7fd48370c6}">
+          <x14:cfRule type="dataBar" id="{16ed8343-afb0-43f7-b6b9-8811ff743a5f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6605,7 +8690,7 @@
           <xm:sqref>T12:U12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b42f0ef0-2467-4f61-be71-360c04f2ea1d}">
+          <x14:cfRule type="dataBar" id="{4e32cbbd-1a6a-4e3b-8eab-599c90300570}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6618,7 +8703,7 @@
           <xm:sqref>X12:Y12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{423d49eb-f3d8-4b29-9e60-5aa424d8d165}">
+          <x14:cfRule type="dataBar" id="{5f6314fc-1da4-4ae3-949a-6637e7010cf5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6631,7 +8716,7 @@
           <xm:sqref>U14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7172938e-368f-4709-bc90-dd7aeb2f97a4}">
+          <x14:cfRule type="dataBar" id="{082cc783-392a-4f6d-b932-a4fb9a548f67}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6644,7 +8729,7 @@
           <xm:sqref>X14:Y14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4e00e96e-2572-4733-b9b6-fe068c7d5c00}">
+          <x14:cfRule type="dataBar" id="{8b7291f5-4363-4ddd-a0fb-77a278019f40}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6657,7 +8742,7 @@
           <xm:sqref>U16:V16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2b5a3369-3fb7-4dc5-9a78-189cf70efeaa}">
+          <x14:cfRule type="dataBar" id="{8397071d-9be8-45e5-94ba-df36ca5363c3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6670,7 +8755,7 @@
           <xm:sqref>Y16:Z16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ef6c4dcb-b55b-426c-b0d3-80ea9a94bd8b}">
+          <x14:cfRule type="dataBar" id="{d4cf6c4f-8e55-4973-8105-7230ea4fa475}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6683,7 +8768,7 @@
           <xm:sqref>U17:V17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13a90b5e-24a7-45a2-bd6c-f7972dc8b705}">
+          <x14:cfRule type="dataBar" id="{13b3e0c8-e617-47a3-a19d-fa9c47296b4d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6696,7 +8781,7 @@
           <xm:sqref>X17:Z17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{38e78af4-1e1f-4801-b1a4-47ba6df936cf}">
+          <x14:cfRule type="dataBar" id="{4c9ea3ef-7717-4450-bd90-05a840d9a342}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6709,7 +8794,7 @@
           <xm:sqref>Y22:AB22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{426cf4c2-ccae-43e7-8431-92b237d4bcdd}">
+          <x14:cfRule type="dataBar" id="{c3117770-16d9-4b77-9137-143c7b73e7c6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6720,7 +8805,7 @@
           <xm:sqref>D28:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1cece7dd-c165-4385-bde1-5e05610a49b8}">
+          <x14:cfRule type="dataBar" id="{bb23d171-3a19-4bea-bcc6-5e64b995736b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6733,7 +8818,7 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c8754ef1-2785-4868-86bf-7f14c0a2cd56}">
+          <x14:cfRule type="dataBar" id="{e684b812-1e88-4b11-a9c1-67f69d7e205b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6746,7 +8831,7 @@
           <xm:sqref>E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{91d1e75e-22cf-465c-9e2b-bd746d4c04c2}">
+          <x14:cfRule type="dataBar" id="{2acbfda9-1171-496e-9c74-6a6b2469a69e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6759,7 +8844,7 @@
           <xm:sqref>H30:I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{595c78c4-184d-49d1-a759-e48ab92e79ac}">
+          <x14:cfRule type="dataBar" id="{4a799cfa-00d8-4cf2-8a51-ce0d1d281a8d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6772,7 +8857,7 @@
           <xm:sqref>J32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f6e01bbd-ce5a-4ee0-9285-5d12e6691210}">
+          <x14:cfRule type="dataBar" id="{34569713-909f-4b9c-aaeb-4267f350ee17}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6785,7 +8870,7 @@
           <xm:sqref>K32:L32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8f1e9c0b-ac5d-47c4-b1df-e94c43c5dd0e}">
+          <x14:cfRule type="dataBar" id="{635948c6-3018-4e4b-9522-f4bba84c11cb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6798,7 +8883,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{461c2199-f257-4ade-858f-f95f78f974c1}">
+          <x14:cfRule type="dataBar" id="{dd00e580-d61a-4792-9a39-8171531ce34e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6811,7 +8896,7 @@
           <xm:sqref>N34:O34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{20064f56-108b-4fd7-9acc-043273ac18c0}">
+          <x14:cfRule type="dataBar" id="{ec749d97-9a91-4d18-a81a-59895013c343}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6824,7 +8909,7 @@
           <xm:sqref>P36:Q36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e9fdcd15-ddf1-47e7-8e4a-c04f44835ac4}">
+          <x14:cfRule type="dataBar" id="{64baba4a-da77-46b8-81e1-cad1f796f3f1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6837,7 +8922,7 @@
           <xm:sqref>R38:T38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fc70b96c-49bd-4ccd-b995-f83a1133c96e}">
+          <x14:cfRule type="dataBar" id="{8b7cbbe0-c4ed-40f6-b108-af008b12be46}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6850,7 +8935,7 @@
           <xm:sqref>U40:W40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{da649726-cfff-4d2b-a3f5-d6d540c091ae}">
+          <x14:cfRule type="dataBar" id="{9a0c171b-3e8d-48c0-8c18-cdbb295c4a70}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6863,7 +8948,7 @@
           <xm:sqref>X42:Y42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1fe03cdd-8e0f-4199-bfaf-96c67e0600b2}">
+          <x14:cfRule type="dataBar" id="{467d3cba-9b42-4b3b-82ed-715880ac21e7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6876,7 +8961,7 @@
           <xm:sqref>Z44:AA44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c4e198bf-9fcc-4c6c-997d-633f0b33b59e}">
+          <x14:cfRule type="dataBar" id="{869d059f-53e3-4393-847e-fbe4f7249f32}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6889,7 +8974,7 @@
           <xm:sqref>AB46:AD46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a7b979eb-17cc-4684-92aa-c85d45e1ec21}">
+          <x14:cfRule type="dataBar" id="{dfbba8f3-e50b-4447-955a-6680432ecfd0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6902,7 +8987,7 @@
           <xm:sqref>AE48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7177415-72e9-49d6-baea-29bb36e7b8a5}">
+          <x14:cfRule type="dataBar" id="{5801e053-6e5a-45a9-bc24-2fb0a92886d6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6915,7 +9000,7 @@
           <xm:sqref>AF50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f1b653a9-99cd-4c5a-93ed-12cf95a30ec7}">
+          <x14:cfRule type="dataBar" id="{c78a88a7-7009-4757-a4b3-f72495d0116f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6926,7 +9011,7 @@
           <xm:sqref>D55:E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5564879a-442b-4aee-a035-ca0d2b97b64f}">
+          <x14:cfRule type="dataBar" id="{74094e15-2f9d-4fd0-8fa1-30b8d7350413}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6939,7 +9024,7 @@
           <xm:sqref>E56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3ef7d387-7822-4116-bed5-84139d12c739}">
+          <x14:cfRule type="dataBar" id="{3e5abd52-28fa-437d-aa79-531f4857a6ab}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6952,7 +9037,7 @@
           <xm:sqref>AB73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cf568d2b-87fb-44f7-9ad1-4270c0af682d}">
+          <x14:cfRule type="dataBar" id="{6ae8c349-168a-4e8c-b816-4e125e04f830}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6965,7 +9050,7 @@
           <xm:sqref>AC73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5e3ffaf3-7b59-4213-bf3e-c415c256d12a}">
+          <x14:cfRule type="dataBar" id="{2e9f4b83-ddd6-44d8-84cf-a2fe5a8c7d7b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6978,7 +9063,7 @@
           <xm:sqref>AD73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dd71416e-8896-4aab-939d-39716ea66b21}">
+          <x14:cfRule type="dataBar" id="{f9db37ec-af5b-4155-81b2-9fa72fe51094}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6991,7 +9076,7 @@
           <xm:sqref>AE75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86b4af35-c9d4-4d65-8ed9-67e2000b18a1}">
+          <x14:cfRule type="dataBar" id="{0b96745a-0272-4ed1-bae0-22b49128d0e2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7004,7 +9089,7 @@
           <xm:sqref>AF77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{821ce777-16ca-4ea2-919e-dd97dea6e1f4}">
+          <x14:cfRule type="dataBar" id="{a293a912-1814-4b07-9d6d-721d6fd3e1c5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7012,23 +9097,146 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D82:G82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{073602eb-6f37-4023-b6f9-8a652d306fb1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M86:O86</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4f99d4c9-2a0e-4f91-98e8-2b1badfed793}">
+          <xm:sqref>D82:E82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b70ce37f-f729-4a65-a827-9eafe2eb6b58}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F84:G84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7b562bf5-04a3-488a-b8e2-48624686b294}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{bdb3b40f-8d73-4351-85cb-00af05929202}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d2d0e441-5178-412f-b560-0e6932db262e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1228431b-f22b-4459-aa74-4cfb3310557f}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{85ee9e17-5435-4be2-a555-c6f9071fb872}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{80380fd4-0e15-4a09-a103-b3e133e0c3d8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0a840dee-f29f-46b8-94a7-106a83905a87}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H86:I86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ef071e6f-b561-41f5-80f0-60769dc3876d}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8f2b2177-4588-4d08-a212-d4778eca033a}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{bb0638fd-0d49-41fa-84e0-11d711f6482a}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d2f7c40f-3cca-44c0-b415-713b20a9d717}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7041,7 +9249,106 @@
           <xm:sqref>P86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c662dad0-4c3d-47da-8c38-f1b63830db48}">
+          <x14:cfRule type="dataBar" id="{004fa318-22df-4404-9fb2-77bed72ed31b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G87</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{236a6b8f-2d13-4cbf-b462-314c169dc788}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H87</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e61da8db-9f34-4d2c-93ac-44b9ffb3b7a6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{87d11c98-ad12-4b3f-ba6e-4ea89d5cdff0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J88:K88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4f2c8c0b-6a3e-4e09-b190-9fcd3d3685c9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{52e9d4cc-99bc-4a70-9add-57807d2dfe1b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{fca0c3d1-77c3-4c4a-a924-a043c931f661}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{012c057f-3cca-4add-858f-284427af7bc5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e9383a26-c730-449b-89e4-2a38b75b4369}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7054,20 +9361,33 @@
           <xm:sqref>G89:H89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{048c38ac-c8d9-413d-b46d-ce53089d1536}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I89:J89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1af3ab62-2cd7-46b2-81c3-ce208cd9d598}">
+          <x14:cfRule type="dataBar" id="{854e1636-7f95-49b6-952e-c0cc6d8e54fe}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{125146b5-881c-423f-a373-8f9c5f225015}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c4609177-b22c-487e-a5ae-1b7281706578}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7080,7 +9400,7 @@
           <xm:sqref>K89:L89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8d53aeea-fc18-4aac-9a03-038418d1b521}">
+          <x14:cfRule type="dataBar" id="{ae2f3922-1d24-4a1c-95ec-8b465d660240}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7093,7 +9413,7 @@
           <xm:sqref>M89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e0463305-492a-45ad-a032-4cb31aea1384}">
+          <x14:cfRule type="dataBar" id="{0df9b762-db24-4678-aa53-e650fdec33eb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7106,7 +9426,80 @@
           <xm:sqref>P89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5295d4d9-4739-49d4-a580-e5ef19bf1818}">
+          <x14:cfRule type="dataBar" id="{0d643ef6-d974-4be0-9fe8-0fbcdb2e55f8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b3f6fd78-ea16-4db9-a4b2-1fd13ef8cb7c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L90:M90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f270aaf5-ab86-4875-a1d7-cbada1a1012f}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0466fbc7-322d-424a-84da-65ceda87245b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d89d066b-9c97-44b4-b7cd-6abc340b48f4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{edda828b-cc81-41c1-bc6e-697aa6d12fd6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>X90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5df024d7-33a2-440a-a2e5-2b5872359dfd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7119,7 +9512,7 @@
           <xm:sqref>N91:O91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{20567ec5-8bbe-4f43-bbad-2e48fe28191a}">
+          <x14:cfRule type="dataBar" id="{98219c04-b0f0-441a-8887-c8703f8a312f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7132,7 +9525,70 @@
           <xm:sqref>Q91:W91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ed129035-477a-471d-83a7-18b6d6b13c0d}">
+          <x14:cfRule type="dataBar" id="{65f90313-04f8-4396-add3-e517462bb3ae}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N92:O92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{19604de8-51d6-4a9d-b10d-3ed74e498dce}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Y92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f4681448-a730-4d89-b43c-ad51b1191b2b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f2162d6e-f3b8-435d-b174-1a923b0c59fe}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AA92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8fa963b7-a46d-4017-a806-9ce235479237}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AB92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{194504ef-24f0-4e2b-b592-64fb3c398a9c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7145,7 +9601,44 @@
           <xm:sqref>Z93:AB93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84ef1fbe-c4d2-484a-9721-a86a9993fe44}">
+          <x14:cfRule type="dataBar" id="{395ec29f-25e1-4582-82ac-9ae766ba7329}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P94:Q94</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{96dc5127-1edc-43c6-942f-0b289515a8a4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AC94</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68c2ee81-b720-4118-94ad-0a2936115abe}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AD94</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{cd8cd97e-5003-4c2a-a4ad-d17d5ba1bb97}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7158,7 +9651,44 @@
           <xm:sqref>AC95:AE95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{875273d9-48f4-4974-a45e-3f2859739289}">
+          <x14:cfRule type="dataBar" id="{5fd18a7e-db89-4175-bf16-e9796cd8d668}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R96:S96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c784139d-a0a3-4e61-93fe-0c33e7cad2fe}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AE96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{cd28f930-2dfd-4e55-bcec-ca034ac71516}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{983a34cd-2765-40f4-8398-0355b3999359}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7171,7 +9701,28 @@
           <xm:sqref>AF97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{610100a1-b6fa-49c5-b5d5-a381d7c17da4}">
+          <x14:cfRule type="dataBar" id="{c13f4dbb-3a5f-411f-8d33-5ec64f9cfa34}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ed565a94-41bd-4ba3-af73-d68ef329b365}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T98:U98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{572cd760-b3c1-472c-8320-3c8bf175c5c4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7184,7 +9735,33 @@
           <xm:sqref>AE98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{27204fdc-a599-4304-8ffd-bd665a458e86}">
+          <x14:cfRule type="dataBar" id="{6534dfab-c9fe-469a-aa9b-f7b2168eb2af}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AF98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{00a96c63-d125-43f3-b5dc-c258c756acff}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q99</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8c85d32e-5110-4ee5-bf45-124ff354d824}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7197,7 +9774,364 @@
           <xm:sqref>AF99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{36406ac6-5922-45c2-9e02-fc228e045ece}">
+          <x14:cfRule type="dataBar" id="{cc162f24-0d5d-4400-b479-26a73704a97a}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0490e719-7713-4cc7-b704-868bf172b609}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V100:W100</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1b81b7af-c17a-4cb4-8543-139a1857a05c}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AE100</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{43ae6685-705a-4d4c-8ff6-d309c554c167}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AF100</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0cb59e75-a15a-46c0-962b-018512a08cdd}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R101</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b9289dbb-9947-431a-8b46-e3f03a6789e5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S101</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9d9e43e8-c1aa-4cdd-a56c-4471689d03fc}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AF101</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2eafa208-bfff-4e61-b26f-791405cbc347}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{491b1274-ab5c-470d-b84f-379272fd91d0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>X102:Y102</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{45b4651e-86b0-428b-8038-072431ddfdb2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AE102</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7030ab73-11ee-448c-ac76-d2c5991d445b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AF102</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e5fcbb96-52bd-4cd4-9489-ade966bcbe2a}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ef5d26ac-9c4d-40bc-af73-6bef52658191}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a2ceaa81-fb66-48f4-9285-1aa42f66bef4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AF103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{dc3cd7cc-a363-4b7b-ac1e-37d377568d73}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{49746eed-b27a-412a-b207-62ee6d8a44ca}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z104:AA104</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3a32d774-1acf-4c96-ab59-48421343f624}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AE104</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f66bae4a-5fb6-41ff-a13f-7a2ccc7bcda0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V105:Y105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e2c098ad-f595-42f4-accf-cc1cd8afae26}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Z105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{58301392-bd20-4638-a44f-41a9de3c477b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AF105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9cc46159-098f-4d49-9634-e95b4842effe}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{063e77b4-7d91-4f04-bb65-dfc0084068d7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AB106:AC106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3fcfb27f-46f3-41da-9114-de17a7d56515}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AD106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{415f8a7a-b86d-46cb-9fbc-0098d43d9cc8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AE106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a24d37b1-2185-438c-b4ab-fe9d1e8fe8f6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AA107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{62927ca4-e233-4283-81a5-a045db8a3e4e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AB107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{07715b40-c88c-4182-b171-7095fb039dc4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AF108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8b08b456-2970-43cd-a181-b409bdea18b2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AG108</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{de74260c-99df-43e4-8a51-134c85b085c5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AC109:AG109</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7a6093e7-7241-4245-953a-1c1ba12b565e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7210,7 +10144,7 @@
           <xm:sqref>D3:AG3 F4:AG4 D5:AG11 D12:Q12 Z12:AG12 X22 D13:AG13 D14:Q14 D15:AG15 D16:R17 Q18:AA18 Q20:W24 AB23:AG23 D18:P24 AG22 Z14:AG14 AA16:AG17 AB18:AG21 X20:AA21 X23:AA24 V19:AA19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6cb57169-09ca-4cd3-9ffd-7f70fe5ce245}">
+          <x14:cfRule type="dataBar" id="{5b0b85b7-3229-4fb0-b18f-136ae1fc2e23}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7223,7 +10157,7 @@
           <xm:sqref>AC28:AG31 J30:AB31 H31:I31 D30:D31 F29:AB29 D28:AB28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{de42204c-a972-480e-97cc-a24afeb60da7}">
+          <x14:cfRule type="dataBar" id="{e2771d34-c5db-414f-bd63-d65bfd17e933}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7236,7 +10170,7 @@
           <xm:sqref>D51:AG51 AG50 D50:AE50 D49:AG49 AF48:AG48 D48:AD48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86c05140-d3e0-41e5-b842-f5ebd2611264}">
+          <x14:cfRule type="dataBar" id="{6ada7f9f-d748-44a0-9447-7396ab49fa20}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7249,69 +10183,160 @@
           <xm:sqref>D55:AG55 D56 F56:AG56 D57:AG72 D73:AA73 D78:AG78 AG77 D77:AE77 D76:AG76 AF75:AG75 D75:AD75 D74:AG74 AE73:AG73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f49800cf-dac1-47a4-a954-435f777359cc}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AC92 M92:Z92 AD88:AD91 AE88:AG92 M91 Q88:AC88 N89:O89 E88:G88 E89:F89 E90:L92 D82:AG85 AC93:AE93 E93:Y96 AG93:AG96 D88:D96 AF93:AF95 AB94:AD94 AB95 AB96:AE96 Z94:AA96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c6aa7a30-04bd-4840-a55d-bf9f3cbc4ba9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>X91:Z91 P91 Y92:AB92 Q89:Z89 U90:Z90 AA88:AC91</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6853c7bc-8132-4a86-a924-1a1ca4cc3032}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D97:AE97 AG97</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cc06ba88-c3b8-4a47-a603-693afb3aba80}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D98:AD98 AF98:AG98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f288c6c0-0d23-4a57-8182-6f8dbbe4e3c3}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D99:AE99 AG99</xm:sqref>
+          <x14:cfRule type="dataBar" id="{29d00abe-e5c9-4967-9e75-d360fa9a56e6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AC92 M92:X92 AD88:AD91 AE88:AG92 M91 U88:AC88 N89:O89 E88:G88 E89:F89 E90:K90 E91:L92 D82:AG83 D84:G84 M84:AG84 D85:AG85 AC93:AE93 E93:Y96 AG93:AG96 D88:D96 AF93:AF95 AB94:AB95 AB96:AD96 Z94:AA96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f244b1a2-3daf-46c3-89ce-6341dd21f1f9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>X91:Z91 P91 Q89:Z89 Y90:Z90 AA88:AC91</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b731dd78-3655-4be9-96be-681250d72517}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D97:O97 Q97:AE97 AG97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4c527311-944f-4f68-adc2-023cefacc49e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D98:S98 V98:AD98 AG98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a6618bfb-f8d4-469c-94d3-25af4b476158}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D99:P99 R99:AE99 AG99</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{38a5f4c0-2fd5-4710-8c72-0316bf951d3c}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D100:U100 X100:AD100 AG100</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{fe6264c5-8eb5-4468-a759-96be471990a5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D101:Q101 T101:AE101 AG101</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1b25c5c6-983d-4c6c-8b7e-9a35bd365b2a}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D102:W102 Z102:AD102 AG102</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c51ea956-0829-45ad-ad51-02cd5c32724b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D103:S103 V103:AE103 AG103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{89080f48-a1b5-4684-90e4-f89a7571096f}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D104:Y104 AB104:AD104 AF104:AG104</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{abdef303-45a0-4bd6-89e2-509b66c52488}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D105:U105 AA105:AE105 AG105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f1b79903-06b5-41f2-8f2b-bfd4e698c66d}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D108:AE108 D107:V107 AC107:AG107 X107:Z107 D106:AA106 AF106:AG106</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
